--- a/prod.xlsx
+++ b/prod.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\pratice_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91392512-C841-4D41-9CE5-AC51C1AC6B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90896806-5B6D-4573-B8FC-EDBF78198026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10275" yWindow="1155" windowWidth="9990" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,13 +57,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -78,8 +105,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,7 +405,7 @@
   <dimension ref="F4:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="F14" sqref="F14:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -403,14 +433,14 @@
       </c>
     </row>
     <row r="6" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F6">
+      <c r="F6" s="1">
         <v>5</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <f>G5*5.2-5</f>
         <v>21</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <f>H5*5.2-958.65</f>
         <v>-958.65</v>
       </c>
@@ -420,23 +450,23 @@
         <v>6</v>
       </c>
       <c r="G7">
-        <f t="shared" ref="G7:G19" si="0">G6*5.2-5</f>
+        <f t="shared" ref="G7:G18" si="0">G6*5.2-5</f>
         <v>104.2</v>
       </c>
       <c r="H7">
-        <f t="shared" ref="G7:H19" si="1">H6*5.2-958.65</f>
+        <f t="shared" ref="H7:H19" si="1">H6*5.2-958.65</f>
         <v>-5943.63</v>
       </c>
     </row>
     <row r="8" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F8">
+      <c r="F8" s="2">
         <v>6</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="2">
         <f t="shared" si="0"/>
         <v>536.84</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="2">
         <f t="shared" si="1"/>
         <v>-31865.526000000002</v>
       </c>
@@ -468,14 +498,14 @@
       </c>
     </row>
     <row r="11" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F11">
+      <c r="F11" s="2">
         <v>0</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="2">
         <f t="shared" si="0"/>
         <v>75317.798720000006</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="2">
         <f t="shared" si="1"/>
         <v>-4512413.4058080018</v>
       </c>
@@ -507,14 +537,14 @@
       </c>
     </row>
     <row r="14" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F14">
+      <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="3">
         <f t="shared" si="0"/>
         <v>10590118.842421763</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="3">
         <f t="shared" si="1"/>
         <v>-634513289.68985152</v>
       </c>
@@ -586,8 +616,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/prod.xlsx
+++ b/prod.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\pratice_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90896806-5B6D-4573-B8FC-EDBF78198026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8872C791-99BD-4FC7-91DC-23C17D8FA971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -93,7 +93,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -101,15 +101,98 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="F4:H19"/>
+  <dimension ref="F4:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14:H14"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -413,7 +496,7 @@
     <col min="6" max="8" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
         <v>0</v>
       </c>
@@ -423,185 +506,507 @@
       <c r="H4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="J4" s="1">
+        <v>4</v>
+      </c>
+      <c r="K4" s="2">
+        <v>5</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="N4" s="1">
+        <v>4</v>
+      </c>
+      <c r="O4" s="2">
+        <v>5</v>
+      </c>
+      <c r="P4" s="3"/>
+    </row>
+    <row r="5" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F5">
         <v>4</v>
       </c>
       <c r="G5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F6" s="1">
+      <c r="J5" s="10">
         <v>5</v>
       </c>
-      <c r="G6" s="1">
+      <c r="K5" s="11">
+        <f>K4*5.2-5</f>
+        <v>21</v>
+      </c>
+      <c r="L5" s="12">
+        <f>L4*5.2-958.65</f>
+        <v>-958.65</v>
+      </c>
+      <c r="N5" s="10">
+        <v>5</v>
+      </c>
+      <c r="O5" s="11">
+        <f>O4*5.2-5</f>
+        <v>21</v>
+      </c>
+      <c r="P5" s="12">
+        <f>P4*5.2-958.65</f>
+        <v>-958.65</v>
+      </c>
+    </row>
+    <row r="6" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F6" s="7">
+        <v>5</v>
+      </c>
+      <c r="G6" s="7">
         <f>G5*5.2-5</f>
         <v>21</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="7">
         <f>H5*5.2-958.65</f>
         <v>-958.65</v>
       </c>
-    </row>
-    <row r="7" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="J6" s="1">
+        <v>6</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" ref="K6:K17" si="0">K5*5.2-5</f>
+        <v>104.2</v>
+      </c>
+      <c r="L6" s="3">
+        <f t="shared" ref="L6:L18" si="1">L5*5.2-958.65</f>
+        <v>-5943.63</v>
+      </c>
+      <c r="N6" s="1">
+        <v>6</v>
+      </c>
+      <c r="O6" s="2">
+        <f t="shared" ref="O6:O17" si="2">O5*5.2-5</f>
+        <v>104.2</v>
+      </c>
+      <c r="P6" s="3">
+        <f t="shared" ref="P6:P18" si="3">P5*5.2-958.65</f>
+        <v>-5943.63</v>
+      </c>
+    </row>
+    <row r="7" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F7">
         <v>6</v>
       </c>
       <c r="G7">
-        <f t="shared" ref="G7:G18" si="0">G6*5.2-5</f>
+        <f t="shared" ref="G7:G18" si="4">G6*5.2-5</f>
         <v>104.2</v>
       </c>
       <c r="H7">
-        <f t="shared" ref="H7:H19" si="1">H6*5.2-958.65</f>
+        <f t="shared" ref="H7:H19" si="5">H6*5.2-958.65</f>
         <v>-5943.63</v>
       </c>
-    </row>
-    <row r="8" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F8" s="2">
+      <c r="J7" s="13">
         <v>6</v>
       </c>
-      <c r="G8" s="2">
+      <c r="K7" s="14">
         <f t="shared" si="0"/>
         <v>536.84</v>
       </c>
-      <c r="H8" s="2">
+      <c r="L7" s="15">
         <f t="shared" si="1"/>
         <v>-31865.526000000002</v>
       </c>
-    </row>
-    <row r="9" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="N7" s="13">
+        <v>6</v>
+      </c>
+      <c r="O7" s="14">
+        <f t="shared" si="2"/>
+        <v>536.84</v>
+      </c>
+      <c r="P7" s="15">
+        <f t="shared" si="3"/>
+        <v>-31865.526000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F8" s="8">
+        <v>6</v>
+      </c>
+      <c r="G8" s="8">
+        <f t="shared" si="4"/>
+        <v>536.84</v>
+      </c>
+      <c r="H8" s="8">
+        <f t="shared" si="5"/>
+        <v>-31865.526000000002</v>
+      </c>
+      <c r="J8" s="1">
+        <v>31</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" si="0"/>
+        <v>2786.5680000000002</v>
+      </c>
+      <c r="L8" s="3">
+        <f t="shared" si="1"/>
+        <v>-166659.38520000002</v>
+      </c>
+      <c r="N8" s="1">
+        <v>31</v>
+      </c>
+      <c r="O8" s="2">
+        <f t="shared" si="2"/>
+        <v>2786.5680000000002</v>
+      </c>
+      <c r="P8" s="3">
+        <f t="shared" si="3"/>
+        <v>-166659.38520000002</v>
+      </c>
+    </row>
+    <row r="9" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F9">
         <v>31</v>
       </c>
       <c r="G9">
+        <f t="shared" si="4"/>
+        <v>2786.5680000000002</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="5"/>
+        <v>-166659.38520000002</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
         <f t="shared" si="0"/>
-        <v>2786.5680000000002</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="1"/>
-        <v>-166659.38520000002</v>
-      </c>
-    </row>
-    <row r="10" spans="6:8" x14ac:dyDescent="0.25">
+        <v>14485.153600000001</v>
+      </c>
+      <c r="L9" s="3">
+        <f t="shared" si="1"/>
+        <v>-867587.45304000017</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
+        <f t="shared" si="2"/>
+        <v>14485.153600000001</v>
+      </c>
+      <c r="P9" s="3">
+        <f t="shared" si="3"/>
+        <v>-867587.45304000017</v>
+      </c>
+    </row>
+    <row r="10" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>14485.153600000001</v>
       </c>
       <c r="H10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-867587.45304000017</v>
       </c>
-    </row>
-    <row r="11" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F11" s="2">
+      <c r="J10" s="13">
         <v>0</v>
       </c>
-      <c r="G11" s="2">
+      <c r="K10" s="14">
         <f t="shared" si="0"/>
         <v>75317.798720000006</v>
       </c>
-      <c r="H11" s="2">
+      <c r="L10" s="15">
         <f t="shared" si="1"/>
         <v>-4512413.4058080018</v>
       </c>
-    </row>
-    <row r="12" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="N10" s="13">
+        <v>0</v>
+      </c>
+      <c r="O10" s="14">
+        <f t="shared" si="2"/>
+        <v>75317.798720000006</v>
+      </c>
+      <c r="P10" s="15">
+        <f t="shared" si="3"/>
+        <v>-4512413.4058080018</v>
+      </c>
+    </row>
+    <row r="11" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F11" s="8">
+        <v>0</v>
+      </c>
+      <c r="G11" s="8">
+        <f t="shared" si="4"/>
+        <v>75317.798720000006</v>
+      </c>
+      <c r="H11" s="8">
+        <f t="shared" si="5"/>
+        <v>-4512413.4058080018</v>
+      </c>
+      <c r="J11" s="1">
+        <v>656</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" si="0"/>
+        <v>391647.55334400007</v>
+      </c>
+      <c r="L11" s="3">
+        <f t="shared" si="1"/>
+        <v>-23465508.360201608</v>
+      </c>
+      <c r="N11" s="1">
+        <v>656</v>
+      </c>
+      <c r="O11" s="2">
+        <f t="shared" si="2"/>
+        <v>391647.55334400007</v>
+      </c>
+      <c r="P11" s="3">
+        <f t="shared" si="3"/>
+        <v>-23465508.360201608</v>
+      </c>
+    </row>
+    <row r="12" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F12">
         <v>656</v>
       </c>
       <c r="G12">
+        <f t="shared" si="4"/>
+        <v>391647.55334400007</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="5"/>
+        <v>-23465508.360201608</v>
+      </c>
+      <c r="J12" s="1">
+        <v>8</v>
+      </c>
+      <c r="K12" s="2">
         <f t="shared" si="0"/>
-        <v>391647.55334400007</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="1"/>
-        <v>-23465508.360201608</v>
-      </c>
-    </row>
-    <row r="13" spans="6:8" x14ac:dyDescent="0.25">
+        <v>2036562.2773888004</v>
+      </c>
+      <c r="L12" s="3">
+        <f t="shared" si="1"/>
+        <v>-122021602.12304838</v>
+      </c>
+      <c r="N12" s="1">
+        <v>8</v>
+      </c>
+      <c r="O12" s="2">
+        <f t="shared" si="2"/>
+        <v>2036562.2773888004</v>
+      </c>
+      <c r="P12" s="3">
+        <f t="shared" si="3"/>
+        <v>-122021602.12304838</v>
+      </c>
+    </row>
+    <row r="13" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F13">
         <v>8</v>
       </c>
       <c r="G13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2036562.2773888004</v>
       </c>
       <c r="H13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-122021602.12304838</v>
       </c>
-    </row>
-    <row r="14" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F14" s="3">
+      <c r="J13" s="16">
         <v>0</v>
       </c>
-      <c r="G14" s="3">
+      <c r="K13" s="17">
         <f t="shared" si="0"/>
         <v>10590118.842421763</v>
       </c>
-      <c r="H14" s="3">
+      <c r="L13" s="18">
         <f t="shared" si="1"/>
         <v>-634513289.68985152</v>
       </c>
-    </row>
-    <row r="15" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="N13" s="16">
+        <v>0</v>
+      </c>
+      <c r="O13" s="17">
+        <f t="shared" si="2"/>
+        <v>10590118.842421763</v>
+      </c>
+      <c r="P13" s="18">
+        <f t="shared" si="3"/>
+        <v>-634513289.68985152</v>
+      </c>
+    </row>
+    <row r="14" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F14" s="9">
+        <v>0</v>
+      </c>
+      <c r="G14" s="9">
+        <f t="shared" si="4"/>
+        <v>10590118.842421763</v>
+      </c>
+      <c r="H14" s="9">
+        <f t="shared" si="5"/>
+        <v>-634513289.68985152</v>
+      </c>
+      <c r="J14" s="1">
+        <v>3</v>
+      </c>
+      <c r="K14" s="2">
+        <f t="shared" si="0"/>
+        <v>55068612.980593167</v>
+      </c>
+      <c r="L14" s="3">
+        <f t="shared" si="1"/>
+        <v>-3299470065.0372281</v>
+      </c>
+      <c r="N14" s="1">
+        <v>3</v>
+      </c>
+      <c r="O14" s="2">
+        <f t="shared" si="2"/>
+        <v>55068612.980593167</v>
+      </c>
+      <c r="P14" s="3">
+        <f t="shared" si="3"/>
+        <v>-3299470065.0372281</v>
+      </c>
+    </row>
+    <row r="15" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F15">
         <v>3</v>
       </c>
       <c r="G15">
+        <f t="shared" si="4"/>
+        <v>55068612.980593167</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="5"/>
+        <v>-3299470065.0372281</v>
+      </c>
+      <c r="J15" s="1">
+        <v>65</v>
+      </c>
+      <c r="K15" s="2">
         <f t="shared" si="0"/>
-        <v>55068612.980593167</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="1"/>
-        <v>-3299470065.0372281</v>
-      </c>
-    </row>
-    <row r="16" spans="6:8" x14ac:dyDescent="0.25">
+        <v>286356782.49908447</v>
+      </c>
+      <c r="L15" s="3">
+        <f t="shared" si="1"/>
+        <v>-17157245296.843586</v>
+      </c>
+      <c r="N15" s="1">
+        <v>65</v>
+      </c>
+      <c r="O15" s="2">
+        <f t="shared" si="2"/>
+        <v>286356782.49908447</v>
+      </c>
+      <c r="P15" s="3">
+        <f t="shared" si="3"/>
+        <v>-17157245296.843586</v>
+      </c>
+    </row>
+    <row r="16" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F16">
         <v>65</v>
       </c>
       <c r="G16">
+        <f t="shared" si="4"/>
+        <v>286356782.49908447</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="5"/>
+        <v>-17157245296.843586</v>
+      </c>
+      <c r="J16" s="1">
+        <v>623</v>
+      </c>
+      <c r="K16" s="2">
         <f t="shared" si="0"/>
-        <v>286356782.49908447</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="1"/>
-        <v>-17157245296.843586</v>
-      </c>
-    </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
+        <v>1489055263.9952393</v>
+      </c>
+      <c r="L16" s="3">
+        <f t="shared" si="1"/>
+        <v>-89217676502.236649</v>
+      </c>
+      <c r="N16" s="1">
+        <v>623</v>
+      </c>
+      <c r="O16" s="2">
+        <f t="shared" si="2"/>
+        <v>1489055263.9952393</v>
+      </c>
+      <c r="P16" s="3">
+        <f t="shared" si="3"/>
+        <v>-89217676502.236649</v>
+      </c>
+    </row>
+    <row r="17" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F17">
         <v>623</v>
       </c>
       <c r="G17">
+        <f t="shared" si="4"/>
+        <v>1489055263.9952393</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="5"/>
+        <v>-89217676502.236649</v>
+      </c>
+      <c r="J17" s="1">
+        <v>323</v>
+      </c>
+      <c r="K17" s="2">
         <f t="shared" si="0"/>
-        <v>1489055263.9952393</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="1"/>
-        <v>-89217676502.236649</v>
-      </c>
-    </row>
-    <row r="18" spans="6:8" x14ac:dyDescent="0.25">
+        <v>7743087367.7752447</v>
+      </c>
+      <c r="L17" s="3">
+        <f t="shared" si="1"/>
+        <v>-463931918770.28064</v>
+      </c>
+      <c r="N17" s="1">
+        <v>323</v>
+      </c>
+      <c r="O17" s="2">
+        <f t="shared" si="2"/>
+        <v>7743087367.7752447</v>
+      </c>
+      <c r="P17" s="3">
+        <f t="shared" si="3"/>
+        <v>-463931918770.28064</v>
+      </c>
+    </row>
+    <row r="18" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F18">
         <v>323</v>
       </c>
       <c r="G18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>7743087367.7752447</v>
       </c>
       <c r="H18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-463931918770.28064</v>
       </c>
-    </row>
-    <row r="19" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="J18" s="4">
+        <v>2</v>
+      </c>
+      <c r="K18" s="5">
+        <f>K17*5.2-L164</f>
+        <v>40264054312.431274</v>
+      </c>
+      <c r="L18" s="6">
+        <f t="shared" si="1"/>
+        <v>-2412445978564.1094</v>
+      </c>
+      <c r="N18" s="4">
+        <v>2</v>
+      </c>
+      <c r="O18" s="5">
+        <f>O17*5.2-P164</f>
+        <v>40264054312.431274</v>
+      </c>
+      <c r="P18" s="6">
+        <f t="shared" si="3"/>
+        <v>-2412445978564.1094</v>
+      </c>
+    </row>
+    <row r="19" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F19">
         <v>2</v>
       </c>
@@ -610,7 +1015,7 @@
         <v>40264054312.431274</v>
       </c>
       <c r="H19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-2412445978564.1094</v>
       </c>
     </row>
